--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Gpr151</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.72010840035824</v>
+        <v>1.821888</v>
       </c>
       <c r="H2">
-        <v>1.72010840035824</v>
+        <v>3.643776</v>
       </c>
       <c r="I2">
-        <v>0.07360227310037606</v>
+        <v>0.04008861639797672</v>
       </c>
       <c r="J2">
-        <v>0.07360227310037606</v>
+        <v>0.03735404616089617</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.395991737268595</v>
+        <v>0.416583</v>
       </c>
       <c r="N2">
-        <v>0.395991737268595</v>
+        <v>0.833166</v>
       </c>
       <c r="O2">
-        <v>0.161219835769179</v>
+        <v>0.1582690299585562</v>
       </c>
       <c r="P2">
-        <v>0.161219835769179</v>
+        <v>0.122017518693299</v>
       </c>
       <c r="Q2">
-        <v>0.6811487137481634</v>
+        <v>0.758967568704</v>
       </c>
       <c r="R2">
-        <v>0.6811487137481634</v>
+        <v>3.035870274816</v>
       </c>
       <c r="S2">
-        <v>0.01186614638148089</v>
+        <v>0.006344786429688445</v>
       </c>
       <c r="T2">
-        <v>0.01186614638148089</v>
+        <v>0.004557848025707501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.72010840035824</v>
+        <v>1.821888</v>
       </c>
       <c r="H3">
-        <v>1.72010840035824</v>
+        <v>3.643776</v>
       </c>
       <c r="I3">
-        <v>0.07360227310037606</v>
+        <v>0.04008861639797672</v>
       </c>
       <c r="J3">
-        <v>0.07360227310037606</v>
+        <v>0.03735404616089617</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.296989522846436</v>
+        <v>0.3934010000000001</v>
       </c>
       <c r="N3">
-        <v>0.296989522846436</v>
+        <v>1.180203</v>
       </c>
       <c r="O3">
-        <v>0.1209131342707602</v>
+        <v>0.1494616790765009</v>
       </c>
       <c r="P3">
-        <v>0.1209131342707602</v>
+        <v>0.1728412364575457</v>
       </c>
       <c r="Q3">
-        <v>0.51085417306654</v>
+        <v>0.7167325610880001</v>
       </c>
       <c r="R3">
-        <v>0.51085417306654</v>
+        <v>4.300395366528</v>
       </c>
       <c r="S3">
-        <v>0.008899481530018934</v>
+        <v>0.005991711918695349</v>
       </c>
       <c r="T3">
-        <v>0.008899481530018934</v>
+        <v>0.006456319525141533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.72010840035824</v>
+        <v>1.821888</v>
       </c>
       <c r="H4">
-        <v>1.72010840035824</v>
+        <v>3.643776</v>
       </c>
       <c r="I4">
-        <v>0.07360227310037606</v>
+        <v>0.04008861639797672</v>
       </c>
       <c r="J4">
-        <v>0.07360227310037606</v>
+        <v>0.03735404616089617</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.417438770557541</v>
+        <v>0.4432936666666666</v>
       </c>
       <c r="N4">
-        <v>0.417438770557541</v>
+        <v>1.329881</v>
       </c>
       <c r="O4">
-        <v>0.1699515512550369</v>
+        <v>0.1684169987976103</v>
       </c>
       <c r="P4">
-        <v>0.1699515512550369</v>
+        <v>0.194761643870925</v>
       </c>
       <c r="Q4">
-        <v>0.7180399358712423</v>
+        <v>0.807631411776</v>
       </c>
       <c r="R4">
-        <v>0.7180399358712423</v>
+        <v>4.845788470655999</v>
       </c>
       <c r="S4">
-        <v>0.01250882048930579</v>
+        <v>0.006751604459695907</v>
       </c>
       <c r="T4">
-        <v>0.01250882048930579</v>
+        <v>0.007275135435526553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.72010840035824</v>
+        <v>1.821888</v>
       </c>
       <c r="H5">
-        <v>1.72010840035824</v>
+        <v>3.643776</v>
       </c>
       <c r="I5">
-        <v>0.07360227310037606</v>
+        <v>0.04008861639797672</v>
       </c>
       <c r="J5">
-        <v>0.07360227310037606</v>
+        <v>0.03735404616089617</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.183899906991736</v>
+        <v>0.2089943333333334</v>
       </c>
       <c r="N5">
-        <v>0.183899906991736</v>
+        <v>0.6269830000000001</v>
       </c>
       <c r="O5">
-        <v>0.07487103899611162</v>
+        <v>0.07940153679699322</v>
       </c>
       <c r="P5">
-        <v>0.07487103899611162</v>
+        <v>0.09182192975095081</v>
       </c>
       <c r="Q5">
-        <v>0.3163277748415841</v>
+        <v>0.3807642679680001</v>
       </c>
       <c r="R5">
-        <v>0.3163277748415841</v>
+        <v>2.284585607808</v>
       </c>
       <c r="S5">
-        <v>0.005510678659500714</v>
+        <v>0.003183097750064494</v>
       </c>
       <c r="T5">
-        <v>0.005510678659500714</v>
+        <v>0.003429920602499582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.72010840035824</v>
+        <v>1.821888</v>
       </c>
       <c r="H6">
-        <v>1.72010840035824</v>
+        <v>3.643776</v>
       </c>
       <c r="I6">
-        <v>0.07360227310037606</v>
+        <v>0.04008861639797672</v>
       </c>
       <c r="J6">
-        <v>0.07360227310037606</v>
+        <v>0.03735404616089617</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.516106390792881</v>
+        <v>0.5183209999999999</v>
       </c>
       <c r="N6">
-        <v>0.516106390792881</v>
+        <v>1.554963</v>
       </c>
       <c r="O6">
-        <v>0.2101220296589528</v>
+        <v>0.1969215303484511</v>
       </c>
       <c r="P6">
-        <v>0.2101220296589528</v>
+        <v>0.2277249994837622</v>
       </c>
       <c r="Q6">
-        <v>0.8877589382814073</v>
+        <v>0.9443228100479998</v>
       </c>
       <c r="R6">
-        <v>0.8877589382814073</v>
+        <v>5.665936860287999</v>
       </c>
       <c r="S6">
-        <v>0.01546545901136357</v>
+        <v>0.007894311690641587</v>
       </c>
       <c r="T6">
-        <v>0.01546545901136357</v>
+        <v>0.00850645014270651</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.72010840035824</v>
+        <v>1.821888</v>
       </c>
       <c r="H7">
-        <v>1.72010840035824</v>
+        <v>3.643776</v>
       </c>
       <c r="I7">
-        <v>0.07360227310037606</v>
+        <v>0.04008861639797672</v>
       </c>
       <c r="J7">
-        <v>0.07360227310037606</v>
+        <v>0.03735404616089617</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.645795856482527</v>
+        <v>0.6515265</v>
       </c>
       <c r="N7">
-        <v>0.645795856482527</v>
+        <v>1.303053</v>
       </c>
       <c r="O7">
-        <v>0.2629224100499593</v>
+        <v>0.2475292250218883</v>
       </c>
       <c r="P7">
-        <v>0.2629224100499593</v>
+        <v>0.1908326717435173</v>
       </c>
       <c r="Q7">
-        <v>1.110838877652139</v>
+        <v>1.187008312032</v>
       </c>
       <c r="R7">
-        <v>1.110838877652139</v>
+        <v>4.748033248128</v>
       </c>
       <c r="S7">
-        <v>0.01935168702870616</v>
+        <v>0.009923104149190939</v>
       </c>
       <c r="T7">
-        <v>0.01935168702870616</v>
+        <v>0.00712837242931449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.685733379141369</v>
+        <v>0.6247593333333333</v>
       </c>
       <c r="H8">
-        <v>0.685733379141369</v>
+        <v>1.874278</v>
       </c>
       <c r="I8">
-        <v>0.02934206671805989</v>
+        <v>0.01374713333369322</v>
       </c>
       <c r="J8">
-        <v>0.02934206671805989</v>
+        <v>0.01921409738972762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.395991737268595</v>
+        <v>0.416583</v>
       </c>
       <c r="N8">
-        <v>0.395991737268595</v>
+        <v>0.833166</v>
       </c>
       <c r="O8">
-        <v>0.161219835769179</v>
+        <v>0.1582690299585562</v>
       </c>
       <c r="P8">
-        <v>0.161219835769179</v>
+        <v>0.122017518693299</v>
       </c>
       <c r="Q8">
-        <v>0.2715447521092548</v>
+        <v>0.260264117358</v>
       </c>
       <c r="R8">
-        <v>0.2715447521092548</v>
+        <v>1.561584704148</v>
       </c>
       <c r="S8">
-        <v>0.004730523177413909</v>
+        <v>0.002175745457434559</v>
       </c>
       <c r="T8">
-        <v>0.004730523177413909</v>
+        <v>0.002344456487425957</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.685733379141369</v>
+        <v>0.6247593333333333</v>
       </c>
       <c r="H9">
-        <v>0.685733379141369</v>
+        <v>1.874278</v>
       </c>
       <c r="I9">
-        <v>0.02934206671805989</v>
+        <v>0.01374713333369322</v>
       </c>
       <c r="J9">
-        <v>0.02934206671805989</v>
+        <v>0.01921409738972762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.296989522846436</v>
+        <v>0.3934010000000001</v>
       </c>
       <c r="N9">
-        <v>0.296989522846436</v>
+        <v>1.180203</v>
       </c>
       <c r="O9">
-        <v>0.1209131342707602</v>
+        <v>0.1494616790765009</v>
       </c>
       <c r="P9">
-        <v>0.1209131342707602</v>
+        <v>0.1728412364575457</v>
       </c>
       <c r="Q9">
-        <v>0.2036556290710693</v>
+        <v>0.2457809464926667</v>
       </c>
       <c r="R9">
-        <v>0.2036556290710693</v>
+        <v>2.212028518434</v>
       </c>
       <c r="S9">
-        <v>0.003547841252862381</v>
+        <v>0.002054669630542324</v>
       </c>
       <c r="T9">
-        <v>0.003547841252862381</v>
+        <v>0.003320988350256223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.685733379141369</v>
+        <v>0.6247593333333333</v>
       </c>
       <c r="H10">
-        <v>0.685733379141369</v>
+        <v>1.874278</v>
       </c>
       <c r="I10">
-        <v>0.02934206671805989</v>
+        <v>0.01374713333369322</v>
       </c>
       <c r="J10">
-        <v>0.02934206671805989</v>
+        <v>0.01921409738972762</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.417438770557541</v>
+        <v>0.4432936666666666</v>
       </c>
       <c r="N10">
-        <v>0.417438770557541</v>
+        <v>1.329881</v>
       </c>
       <c r="O10">
-        <v>0.1699515512550369</v>
+        <v>0.1684169987976103</v>
       </c>
       <c r="P10">
-        <v>0.1699515512550369</v>
+        <v>0.194761643870925</v>
       </c>
       <c r="Q10">
-        <v>0.2862516987190412</v>
+        <v>0.2769518556575555</v>
       </c>
       <c r="R10">
-        <v>0.2862516987190412</v>
+        <v>2.492566700918</v>
       </c>
       <c r="S10">
-        <v>0.004986729755763069</v>
+        <v>0.002315250938131199</v>
       </c>
       <c r="T10">
-        <v>0.004986729755763069</v>
+        <v>0.003742169193119401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.685733379141369</v>
+        <v>0.6247593333333333</v>
       </c>
       <c r="H11">
-        <v>0.685733379141369</v>
+        <v>1.874278</v>
       </c>
       <c r="I11">
-        <v>0.02934206671805989</v>
+        <v>0.01374713333369322</v>
       </c>
       <c r="J11">
-        <v>0.02934206671805989</v>
+        <v>0.01921409738972762</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.183899906991736</v>
+        <v>0.2089943333333334</v>
       </c>
       <c r="N11">
-        <v>0.183899906991736</v>
+        <v>0.6269830000000001</v>
       </c>
       <c r="O11">
-        <v>0.07487103899611162</v>
+        <v>0.07940153679699322</v>
       </c>
       <c r="P11">
-        <v>0.07487103899611162</v>
+        <v>0.09182192975095081</v>
       </c>
       <c r="Q11">
-        <v>0.1261063046452266</v>
+        <v>0.1305711603637778</v>
       </c>
       <c r="R11">
-        <v>0.1261063046452266</v>
+        <v>1.175140443274</v>
       </c>
       <c r="S11">
-        <v>0.002196871021474371</v>
+        <v>0.001091543513248414</v>
       </c>
       <c r="T11">
-        <v>0.002196871021474371</v>
+        <v>0.001764275500747497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.685733379141369</v>
+        <v>0.6247593333333333</v>
       </c>
       <c r="H12">
-        <v>0.685733379141369</v>
+        <v>1.874278</v>
       </c>
       <c r="I12">
-        <v>0.02934206671805989</v>
+        <v>0.01374713333369322</v>
       </c>
       <c r="J12">
-        <v>0.02934206671805989</v>
+        <v>0.01921409738972762</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.516106390792881</v>
+        <v>0.5183209999999999</v>
       </c>
       <c r="N12">
-        <v>0.516106390792881</v>
+        <v>1.554963</v>
       </c>
       <c r="O12">
-        <v>0.2101220296589528</v>
+        <v>0.1969215303484511</v>
       </c>
       <c r="P12">
-        <v>0.2101220296589528</v>
+        <v>0.2277249994837622</v>
       </c>
       <c r="Q12">
-        <v>0.3539113793548582</v>
+        <v>0.3238258824126666</v>
       </c>
       <c r="R12">
-        <v>0.3539113793548582</v>
+        <v>2.914432941714</v>
       </c>
       <c r="S12">
-        <v>0.006165414613187153</v>
+        <v>0.002707106533975073</v>
       </c>
       <c r="T12">
-        <v>0.006165414613187153</v>
+        <v>0.004375530318156679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.685733379141369</v>
+        <v>0.6247593333333333</v>
       </c>
       <c r="H13">
-        <v>0.685733379141369</v>
+        <v>1.874278</v>
       </c>
       <c r="I13">
-        <v>0.02934206671805989</v>
+        <v>0.01374713333369322</v>
       </c>
       <c r="J13">
-        <v>0.02934206671805989</v>
+        <v>0.01921409738972762</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.645795856482527</v>
+        <v>0.6515265</v>
       </c>
       <c r="N13">
-        <v>0.645795856482527</v>
+        <v>1.303053</v>
       </c>
       <c r="O13">
-        <v>0.2629224100499593</v>
+        <v>0.2475292250218883</v>
       </c>
       <c r="P13">
-        <v>0.2629224100499593</v>
+        <v>0.1908326717435173</v>
       </c>
       <c r="Q13">
-        <v>0.4428437749012578</v>
+        <v>0.407047261789</v>
       </c>
       <c r="R13">
-        <v>0.4428437749012578</v>
+        <v>2.442283570734</v>
       </c>
       <c r="S13">
-        <v>0.007714686897359005</v>
+        <v>0.00340281726036165</v>
       </c>
       <c r="T13">
-        <v>0.007714686897359005</v>
+        <v>0.003666677540021863</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.851515261695586</v>
+        <v>0.8733626666666666</v>
       </c>
       <c r="H14">
-        <v>0.851515261695586</v>
+        <v>2.620088</v>
       </c>
       <c r="I14">
-        <v>0.0364357611574968</v>
+        <v>0.01921737281342981</v>
       </c>
       <c r="J14">
-        <v>0.0364357611574968</v>
+        <v>0.02685974332604697</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.395991737268595</v>
+        <v>0.416583</v>
       </c>
       <c r="N14">
-        <v>0.395991737268595</v>
+        <v>0.833166</v>
       </c>
       <c r="O14">
-        <v>0.161219835769179</v>
+        <v>0.1582690299585562</v>
       </c>
       <c r="P14">
-        <v>0.161219835769179</v>
+        <v>0.122017518693299</v>
       </c>
       <c r="Q14">
-        <v>0.3371930077895574</v>
+        <v>0.363828039768</v>
       </c>
       <c r="R14">
-        <v>0.3371930077895574</v>
+        <v>2.182968238608</v>
       </c>
       <c r="S14">
-        <v>0.005874167429936664</v>
+        <v>0.003041514953533466</v>
       </c>
       <c r="T14">
-        <v>0.005874167429936664</v>
+        <v>0.003277359233383148</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.851515261695586</v>
+        <v>0.8733626666666666</v>
       </c>
       <c r="H15">
-        <v>0.851515261695586</v>
+        <v>2.620088</v>
       </c>
       <c r="I15">
-        <v>0.0364357611574968</v>
+        <v>0.01921737281342981</v>
       </c>
       <c r="J15">
-        <v>0.0364357611574968</v>
+        <v>0.02685974332604697</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.296989522846436</v>
+        <v>0.3934010000000001</v>
       </c>
       <c r="N15">
-        <v>0.296989522846436</v>
+        <v>1.180203</v>
       </c>
       <c r="O15">
-        <v>0.1209131342707602</v>
+        <v>0.1494616790765009</v>
       </c>
       <c r="P15">
-        <v>0.1209131342707602</v>
+        <v>0.1728412364575457</v>
       </c>
       <c r="Q15">
-        <v>0.2528911112674301</v>
+        <v>0.3435817464293334</v>
       </c>
       <c r="R15">
-        <v>0.2528911112674301</v>
+        <v>3.092235717864</v>
       </c>
       <c r="S15">
-        <v>0.00440556208109376</v>
+        <v>0.00287226080813432</v>
       </c>
       <c r="T15">
-        <v>0.00440556208109376</v>
+        <v>0.00464247124740627</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.851515261695586</v>
+        <v>0.8733626666666666</v>
       </c>
       <c r="H16">
-        <v>0.851515261695586</v>
+        <v>2.620088</v>
       </c>
       <c r="I16">
-        <v>0.0364357611574968</v>
+        <v>0.01921737281342981</v>
       </c>
       <c r="J16">
-        <v>0.0364357611574968</v>
+        <v>0.02685974332604697</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.417438770557541</v>
+        <v>0.4432936666666666</v>
       </c>
       <c r="N16">
-        <v>0.417438770557541</v>
+        <v>1.329881</v>
       </c>
       <c r="O16">
-        <v>0.1699515512550369</v>
+        <v>0.1684169987976103</v>
       </c>
       <c r="P16">
-        <v>0.1699515512550369</v>
+        <v>0.194761643870925</v>
       </c>
       <c r="Q16">
-        <v>0.3554554839531882</v>
+        <v>0.3871561388364444</v>
       </c>
       <c r="R16">
-        <v>0.3554554839531882</v>
+        <v>3.484405249528</v>
       </c>
       <c r="S16">
-        <v>0.0061923141298746</v>
+        <v>0.003236532254012638</v>
       </c>
       <c r="T16">
-        <v>0.0061923141298746</v>
+        <v>0.005231247764132015</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.851515261695586</v>
+        <v>0.8733626666666666</v>
       </c>
       <c r="H17">
-        <v>0.851515261695586</v>
+        <v>2.620088</v>
       </c>
       <c r="I17">
-        <v>0.0364357611574968</v>
+        <v>0.01921737281342981</v>
       </c>
       <c r="J17">
-        <v>0.0364357611574968</v>
+        <v>0.02685974332604697</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.183899906991736</v>
+        <v>0.2089943333333334</v>
       </c>
       <c r="N17">
-        <v>0.183899906991736</v>
+        <v>0.6269830000000001</v>
       </c>
       <c r="O17">
-        <v>0.07487103899611162</v>
+        <v>0.07940153679699322</v>
       </c>
       <c r="P17">
-        <v>0.07487103899611162</v>
+        <v>0.09182192975095081</v>
       </c>
       <c r="Q17">
-        <v>0.156593577427862</v>
+        <v>0.1825278482782222</v>
       </c>
       <c r="R17">
-        <v>0.156593577427862</v>
+        <v>1.642750634504</v>
       </c>
       <c r="S17">
-        <v>0.002727983294475952</v>
+        <v>0.001525888934587084</v>
       </c>
       <c r="T17">
-        <v>0.002727983294475952</v>
+        <v>0.002466313464812855</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.851515261695586</v>
+        <v>0.8733626666666666</v>
       </c>
       <c r="H18">
-        <v>0.851515261695586</v>
+        <v>2.620088</v>
       </c>
       <c r="I18">
-        <v>0.0364357611574968</v>
+        <v>0.01921737281342981</v>
       </c>
       <c r="J18">
-        <v>0.0364357611574968</v>
+        <v>0.02685974332604697</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.516106390792881</v>
+        <v>0.5183209999999999</v>
       </c>
       <c r="N18">
-        <v>0.516106390792881</v>
+        <v>1.554963</v>
       </c>
       <c r="O18">
-        <v>0.2101220296589528</v>
+        <v>0.1969215303484511</v>
       </c>
       <c r="P18">
-        <v>0.2101220296589528</v>
+        <v>0.2277249994837622</v>
       </c>
       <c r="Q18">
-        <v>0.4394724684187645</v>
+        <v>0.4526822107493332</v>
       </c>
       <c r="R18">
-        <v>0.4394724684187645</v>
+        <v>4.074139896744</v>
       </c>
       <c r="S18">
-        <v>0.007655956086582064</v>
+        <v>0.003784314463697317</v>
       </c>
       <c r="T18">
-        <v>0.007655956086582064</v>
+        <v>0.006116635035058032</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.851515261695586</v>
+        <v>0.8733626666666666</v>
       </c>
       <c r="H19">
-        <v>0.851515261695586</v>
+        <v>2.620088</v>
       </c>
       <c r="I19">
-        <v>0.0364357611574968</v>
+        <v>0.01921737281342981</v>
       </c>
       <c r="J19">
-        <v>0.0364357611574968</v>
+        <v>0.02685974332604697</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.645795856482527</v>
+        <v>0.6515265</v>
       </c>
       <c r="N19">
-        <v>0.645795856482527</v>
+        <v>1.303053</v>
       </c>
       <c r="O19">
-        <v>0.2629224100499593</v>
+        <v>0.2475292250218883</v>
       </c>
       <c r="P19">
-        <v>0.2629224100499593</v>
+        <v>0.1908326717435173</v>
       </c>
       <c r="Q19">
-        <v>0.5499050277346441</v>
+        <v>0.569018921444</v>
       </c>
       <c r="R19">
-        <v>0.5499050277346441</v>
+        <v>3.414113528664</v>
       </c>
       <c r="S19">
-        <v>0.009579778135533751</v>
+        <v>0.004756861399464986</v>
       </c>
       <c r="T19">
-        <v>0.009579778135533751</v>
+        <v>0.00512571658125465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.25578309191436</v>
+        <v>0.869881</v>
       </c>
       <c r="H20">
-        <v>2.25578309191436</v>
+        <v>2.609643</v>
       </c>
       <c r="I20">
-        <v>0.09652343023946217</v>
+        <v>0.01914076261597222</v>
       </c>
       <c r="J20">
-        <v>0.09652343023946217</v>
+        <v>0.02675266676257255</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.395991737268595</v>
+        <v>0.416583</v>
       </c>
       <c r="N20">
-        <v>0.395991737268595</v>
+        <v>0.833166</v>
       </c>
       <c r="O20">
-        <v>0.161219835769179</v>
+        <v>0.1582690299585562</v>
       </c>
       <c r="P20">
-        <v>0.161219835769179</v>
+        <v>0.122017518693299</v>
       </c>
       <c r="Q20">
-        <v>0.8932714654682902</v>
+        <v>0.362377636623</v>
       </c>
       <c r="R20">
-        <v>0.8932714654682902</v>
+        <v>2.174265819738</v>
       </c>
       <c r="S20">
-        <v>0.01556149157108389</v>
+        <v>0.003029389931896919</v>
       </c>
       <c r="T20">
-        <v>0.01556149157108389</v>
+        <v>0.003264294016797795</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.25578309191436</v>
+        <v>0.869881</v>
       </c>
       <c r="H21">
-        <v>2.25578309191436</v>
+        <v>2.609643</v>
       </c>
       <c r="I21">
-        <v>0.09652343023946217</v>
+        <v>0.01914076261597222</v>
       </c>
       <c r="J21">
-        <v>0.09652343023946217</v>
+        <v>0.02675266676257255</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.296989522846436</v>
+        <v>0.3934010000000001</v>
       </c>
       <c r="N21">
-        <v>0.296989522846436</v>
+        <v>1.180203</v>
       </c>
       <c r="O21">
-        <v>0.1209131342707602</v>
+        <v>0.1494616790765009</v>
       </c>
       <c r="P21">
-        <v>0.1209131342707602</v>
+        <v>0.1728412364575457</v>
       </c>
       <c r="Q21">
-        <v>0.6699439441127039</v>
+        <v>0.3422120552810001</v>
       </c>
       <c r="R21">
-        <v>0.6699439441127039</v>
+        <v>3.079908497529</v>
       </c>
       <c r="S21">
-        <v>0.01167095048081845</v>
+        <v>0.002860810519387926</v>
       </c>
       <c r="T21">
-        <v>0.01167095048081845</v>
+        <v>0.004623964001779727</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.25578309191436</v>
+        <v>0.869881</v>
       </c>
       <c r="H22">
-        <v>2.25578309191436</v>
+        <v>2.609643</v>
       </c>
       <c r="I22">
-        <v>0.09652343023946217</v>
+        <v>0.01914076261597222</v>
       </c>
       <c r="J22">
-        <v>0.09652343023946217</v>
+        <v>0.02675266676257255</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.417438770557541</v>
+        <v>0.4432936666666666</v>
       </c>
       <c r="N22">
-        <v>0.417438770557541</v>
+        <v>1.329881</v>
       </c>
       <c r="O22">
-        <v>0.1699515512550369</v>
+        <v>0.1684169987976103</v>
       </c>
       <c r="P22">
-        <v>0.1699515512550369</v>
+        <v>0.194761643870925</v>
       </c>
       <c r="Q22">
-        <v>0.941651320533219</v>
+        <v>0.3856127380536666</v>
       </c>
       <c r="R22">
-        <v>0.941651320533219</v>
+        <v>3.470514642483</v>
       </c>
       <c r="S22">
-        <v>0.01640430670165393</v>
+        <v>0.003223629794479537</v>
       </c>
       <c r="T22">
-        <v>0.01640430670165393</v>
+        <v>0.005210393356609689</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.25578309191436</v>
+        <v>0.869881</v>
       </c>
       <c r="H23">
-        <v>2.25578309191436</v>
+        <v>2.609643</v>
       </c>
       <c r="I23">
-        <v>0.09652343023946217</v>
+        <v>0.01914076261597222</v>
       </c>
       <c r="J23">
-        <v>0.09652343023946217</v>
+        <v>0.02675266676257255</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.183899906991736</v>
+        <v>0.2089943333333334</v>
       </c>
       <c r="N23">
-        <v>0.183899906991736</v>
+        <v>0.6269830000000001</v>
       </c>
       <c r="O23">
-        <v>0.07487103899611162</v>
+        <v>0.07940153679699322</v>
       </c>
       <c r="P23">
-        <v>0.07487103899611162</v>
+        <v>0.09182192975095081</v>
       </c>
       <c r="Q23">
-        <v>0.4148383007965815</v>
+        <v>0.1818001996743334</v>
       </c>
       <c r="R23">
-        <v>0.4148383007965815</v>
+        <v>1.636201797069</v>
       </c>
       <c r="S23">
-        <v>0.007226809509497232</v>
+        <v>0.00151980596717463</v>
       </c>
       <c r="T23">
-        <v>0.007226809509497232</v>
+        <v>0.002456481488123534</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.25578309191436</v>
+        <v>0.869881</v>
       </c>
       <c r="H24">
-        <v>2.25578309191436</v>
+        <v>2.609643</v>
       </c>
       <c r="I24">
-        <v>0.09652343023946217</v>
+        <v>0.01914076261597222</v>
       </c>
       <c r="J24">
-        <v>0.09652343023946217</v>
+        <v>0.02675266676257255</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.516106390792881</v>
+        <v>0.5183209999999999</v>
       </c>
       <c r="N24">
-        <v>0.516106390792881</v>
+        <v>1.554963</v>
       </c>
       <c r="O24">
-        <v>0.2101220296589528</v>
+        <v>0.1969215303484511</v>
       </c>
       <c r="P24">
-        <v>0.2101220296589528</v>
+        <v>0.2277249994837622</v>
       </c>
       <c r="Q24">
-        <v>1.164224069979526</v>
+        <v>0.450877589801</v>
       </c>
       <c r="R24">
-        <v>1.164224069979526</v>
+        <v>4.057898308209</v>
       </c>
       <c r="S24">
-        <v>0.02028169907156013</v>
+        <v>0.003769228266373671</v>
       </c>
       <c r="T24">
-        <v>0.02028169907156013</v>
+        <v>0.006092251024696098</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.25578309191436</v>
+        <v>0.869881</v>
       </c>
       <c r="H25">
-        <v>2.25578309191436</v>
+        <v>2.609643</v>
       </c>
       <c r="I25">
-        <v>0.09652343023946217</v>
+        <v>0.01914076261597222</v>
       </c>
       <c r="J25">
-        <v>0.09652343023946217</v>
+        <v>0.02675266676257255</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.645795856482527</v>
+        <v>0.6515265</v>
       </c>
       <c r="N25">
-        <v>0.645795856482527</v>
+        <v>1.303053</v>
       </c>
       <c r="O25">
-        <v>0.2629224100499593</v>
+        <v>0.2475292250218883</v>
       </c>
       <c r="P25">
-        <v>0.2629224100499593</v>
+        <v>0.1908326717435173</v>
       </c>
       <c r="Q25">
-        <v>1.456775373881637</v>
+        <v>0.5667505233465</v>
       </c>
       <c r="R25">
-        <v>1.456775373881637</v>
+        <v>3.400503140079</v>
       </c>
       <c r="S25">
-        <v>0.02537817290484851</v>
+        <v>0.004737898136659533</v>
       </c>
       <c r="T25">
-        <v>0.02537817290484851</v>
+        <v>0.005105282874565713</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.8571761343299</v>
+        <v>4.285985333333333</v>
       </c>
       <c r="H26">
-        <v>17.8571761343299</v>
+        <v>12.857956</v>
       </c>
       <c r="I26">
-        <v>0.7640964687846051</v>
+        <v>0.09430833394553033</v>
       </c>
       <c r="J26">
-        <v>0.7640964687846051</v>
+        <v>0.1318129001230514</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.395991737268595</v>
+        <v>0.416583</v>
       </c>
       <c r="N26">
-        <v>0.395991737268595</v>
+        <v>0.833166</v>
       </c>
       <c r="O26">
-        <v>0.161219835769179</v>
+        <v>0.1582690299585562</v>
       </c>
       <c r="P26">
-        <v>0.161219835769179</v>
+        <v>0.122017518693299</v>
       </c>
       <c r="Q26">
-        <v>7.071294200144591</v>
+        <v>1.785468628116</v>
       </c>
       <c r="R26">
-        <v>7.071294200144591</v>
+        <v>10.712811768696</v>
       </c>
       <c r="S26">
-        <v>0.1231875072092636</v>
+        <v>0.01492608853056666</v>
       </c>
       <c r="T26">
-        <v>0.1231875072092636</v>
+        <v>0.01608348300478238</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>17.8571761343299</v>
+        <v>4.285985333333333</v>
       </c>
       <c r="H27">
-        <v>17.8571761343299</v>
+        <v>12.857956</v>
       </c>
       <c r="I27">
-        <v>0.7640964687846051</v>
+        <v>0.09430833394553033</v>
       </c>
       <c r="J27">
-        <v>0.7640964687846051</v>
+        <v>0.1318129001230514</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.296989522846436</v>
+        <v>0.3934010000000001</v>
       </c>
       <c r="N27">
-        <v>0.296989522846436</v>
+        <v>1.180203</v>
       </c>
       <c r="O27">
-        <v>0.1209131342707602</v>
+        <v>0.1494616790765009</v>
       </c>
       <c r="P27">
-        <v>0.1209131342707602</v>
+        <v>0.1728412364575457</v>
       </c>
       <c r="Q27">
-        <v>5.303394219519402</v>
+        <v>1.686110916118667</v>
       </c>
       <c r="R27">
-        <v>5.303394219519402</v>
+        <v>15.174998245068</v>
       </c>
       <c r="S27">
-        <v>0.09238929892596671</v>
+        <v>0.01409548194240633</v>
       </c>
       <c r="T27">
-        <v>0.09238929892596671</v>
+        <v>0.02278270463832319</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>17.8571761343299</v>
+        <v>4.285985333333333</v>
       </c>
       <c r="H28">
-        <v>17.8571761343299</v>
+        <v>12.857956</v>
       </c>
       <c r="I28">
-        <v>0.7640964687846051</v>
+        <v>0.09430833394553033</v>
       </c>
       <c r="J28">
-        <v>0.7640964687846051</v>
+        <v>0.1318129001230514</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.417438770557541</v>
+        <v>0.4432936666666666</v>
       </c>
       <c r="N28">
-        <v>0.417438770557541</v>
+        <v>1.329881</v>
       </c>
       <c r="O28">
-        <v>0.1699515512550369</v>
+        <v>0.1684169987976103</v>
       </c>
       <c r="P28">
-        <v>0.1699515512550369</v>
+        <v>0.194761643870925</v>
       </c>
       <c r="Q28">
-        <v>7.454277651144136</v>
+        <v>1.899950153692888</v>
       </c>
       <c r="R28">
-        <v>7.454277651144136</v>
+        <v>17.09955138323599</v>
       </c>
       <c r="S28">
-        <v>0.1298593801784395</v>
+        <v>0.01588312656470901</v>
       </c>
       <c r="T28">
-        <v>0.1298593801784395</v>
+        <v>0.02567209711135955</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>17.8571761343299</v>
+        <v>4.285985333333333</v>
       </c>
       <c r="H29">
-        <v>17.8571761343299</v>
+        <v>12.857956</v>
       </c>
       <c r="I29">
-        <v>0.7640964687846051</v>
+        <v>0.09430833394553033</v>
       </c>
       <c r="J29">
-        <v>0.7640964687846051</v>
+        <v>0.1318129001230514</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.183899906991736</v>
+        <v>0.2089943333333334</v>
       </c>
       <c r="N29">
-        <v>0.183899906991736</v>
+        <v>0.6269830000000001</v>
       </c>
       <c r="O29">
-        <v>0.07487103899611162</v>
+        <v>0.07940153679699322</v>
       </c>
       <c r="P29">
-        <v>0.07487103899611162</v>
+        <v>0.09182192975095081</v>
       </c>
       <c r="Q29">
-        <v>3.283933030238317</v>
+        <v>0.8957466474164444</v>
       </c>
       <c r="R29">
-        <v>3.283933030238317</v>
+        <v>8.061719826748</v>
       </c>
       <c r="S29">
-        <v>0.05720869651116336</v>
+        <v>0.007488226648039151</v>
       </c>
       <c r="T29">
-        <v>0.05720869651116336</v>
+        <v>0.01210331485536792</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>17.8571761343299</v>
+        <v>4.285985333333333</v>
       </c>
       <c r="H30">
-        <v>17.8571761343299</v>
+        <v>12.857956</v>
       </c>
       <c r="I30">
-        <v>0.7640964687846051</v>
+        <v>0.09430833394553033</v>
       </c>
       <c r="J30">
-        <v>0.7640964687846051</v>
+        <v>0.1318129001230514</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.516106390792881</v>
+        <v>0.5183209999999999</v>
       </c>
       <c r="N30">
-        <v>0.516106390792881</v>
+        <v>1.554963</v>
       </c>
       <c r="O30">
-        <v>0.2101220296589528</v>
+        <v>0.1969215303484511</v>
       </c>
       <c r="P30">
-        <v>0.2101220296589528</v>
+        <v>0.2277249994837622</v>
       </c>
       <c r="Q30">
-        <v>9.216202724441777</v>
+        <v>2.221516203958666</v>
       </c>
       <c r="R30">
-        <v>9.216202724441777</v>
+        <v>19.99364583562799</v>
       </c>
       <c r="S30">
-        <v>0.1605535008762599</v>
+        <v>0.01857134144516661</v>
       </c>
       <c r="T30">
-        <v>0.1605535008762599</v>
+        <v>0.03001709261247509</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.285985333333333</v>
+      </c>
+      <c r="H31">
+        <v>12.857956</v>
+      </c>
+      <c r="I31">
+        <v>0.09430833394553033</v>
+      </c>
+      <c r="J31">
+        <v>0.1318129001230514</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.6515265</v>
+      </c>
+      <c r="N31">
+        <v>1.303053</v>
+      </c>
+      <c r="O31">
+        <v>0.2475292250218883</v>
+      </c>
+      <c r="P31">
+        <v>0.1908326717435173</v>
+      </c>
+      <c r="Q31">
+        <v>2.792433023277999</v>
+      </c>
+      <c r="R31">
+        <v>16.754598139668</v>
+      </c>
+      <c r="S31">
+        <v>0.02334406881464256</v>
+      </c>
+      <c r="T31">
+        <v>0.0251542079007433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>36.970641</v>
+      </c>
+      <c r="H32">
+        <v>73.941282</v>
+      </c>
+      <c r="I32">
+        <v>0.8134977808933977</v>
+      </c>
+      <c r="J32">
+        <v>0.7580065462377054</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.416583</v>
+      </c>
+      <c r="N32">
+        <v>0.833166</v>
+      </c>
+      <c r="O32">
+        <v>0.1582690299585562</v>
+      </c>
+      <c r="P32">
+        <v>0.122017518693299</v>
+      </c>
+      <c r="Q32">
+        <v>15.401340539703</v>
+      </c>
+      <c r="R32">
+        <v>61.605362158812</v>
+      </c>
+      <c r="S32">
+        <v>0.1287515046554362</v>
+      </c>
+      <c r="T32">
+        <v>0.09249007792520221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>36.970641</v>
+      </c>
+      <c r="H33">
+        <v>73.941282</v>
+      </c>
+      <c r="I33">
+        <v>0.8134977808933977</v>
+      </c>
+      <c r="J33">
+        <v>0.7580065462377054</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.3934010000000001</v>
+      </c>
+      <c r="N33">
+        <v>1.180203</v>
+      </c>
+      <c r="O33">
+        <v>0.1494616790765009</v>
+      </c>
+      <c r="P33">
+        <v>0.1728412364575457</v>
+      </c>
+      <c r="Q33">
+        <v>14.544287140041</v>
+      </c>
+      <c r="R33">
+        <v>87.26572284024601</v>
+      </c>
+      <c r="S33">
+        <v>0.1215867442573347</v>
+      </c>
+      <c r="T33">
+        <v>0.1310147886946388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>36.970641</v>
+      </c>
+      <c r="H34">
+        <v>73.941282</v>
+      </c>
+      <c r="I34">
+        <v>0.8134977808933977</v>
+      </c>
+      <c r="J34">
+        <v>0.7580065462377054</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.4432936666666666</v>
+      </c>
+      <c r="N34">
+        <v>1.329881</v>
+      </c>
+      <c r="O34">
+        <v>0.1684169987976103</v>
+      </c>
+      <c r="P34">
+        <v>0.194761643870925</v>
+      </c>
+      <c r="Q34">
+        <v>16.388851007907</v>
+      </c>
+      <c r="R34">
+        <v>98.33310604744199</v>
+      </c>
+      <c r="S34">
+        <v>0.137006854786582</v>
+      </c>
+      <c r="T34">
+        <v>0.1476306010101778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>36.970641</v>
+      </c>
+      <c r="H35">
+        <v>73.941282</v>
+      </c>
+      <c r="I35">
+        <v>0.8134977808933977</v>
+      </c>
+      <c r="J35">
+        <v>0.7580065462377054</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.2089943333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.6269830000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.07940153679699322</v>
+      </c>
+      <c r="P35">
+        <v>0.09182192975095081</v>
+      </c>
+      <c r="Q35">
+        <v>7.726654468701001</v>
+      </c>
+      <c r="R35">
+        <v>46.35992681220601</v>
+      </c>
+      <c r="S35">
+        <v>0.06459297398387945</v>
+      </c>
+      <c r="T35">
+        <v>0.06960162383939943</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>17.8571761343299</v>
-      </c>
-      <c r="H31">
-        <v>17.8571761343299</v>
-      </c>
-      <c r="I31">
-        <v>0.7640964687846051</v>
-      </c>
-      <c r="J31">
-        <v>0.7640964687846051</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.645795856482527</v>
-      </c>
-      <c r="N31">
-        <v>0.645795856482527</v>
-      </c>
-      <c r="O31">
-        <v>0.2629224100499593</v>
-      </c>
-      <c r="P31">
-        <v>0.2629224100499593</v>
-      </c>
-      <c r="Q31">
-        <v>11.53209035602892</v>
-      </c>
-      <c r="R31">
-        <v>11.53209035602892</v>
-      </c>
-      <c r="S31">
-        <v>0.2008980850835118</v>
-      </c>
-      <c r="T31">
-        <v>0.2008980850835118</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>36.970641</v>
+      </c>
+      <c r="H36">
+        <v>73.941282</v>
+      </c>
+      <c r="I36">
+        <v>0.8134977808933977</v>
+      </c>
+      <c r="J36">
+        <v>0.7580065462377054</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5183209999999999</v>
+      </c>
+      <c r="N36">
+        <v>1.554963</v>
+      </c>
+      <c r="O36">
+        <v>0.1969215303484511</v>
+      </c>
+      <c r="P36">
+        <v>0.2277249994837622</v>
+      </c>
+      <c r="Q36">
+        <v>19.162659613761</v>
+      </c>
+      <c r="R36">
+        <v>114.975957682566</v>
+      </c>
+      <c r="S36">
+        <v>0.1601952279485968</v>
+      </c>
+      <c r="T36">
+        <v>0.1726170403506699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>36.970641</v>
+      </c>
+      <c r="H37">
+        <v>73.941282</v>
+      </c>
+      <c r="I37">
+        <v>0.8134977808933977</v>
+      </c>
+      <c r="J37">
+        <v>0.7580065462377054</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.6515265</v>
+      </c>
+      <c r="N37">
+        <v>1.303053</v>
+      </c>
+      <c r="O37">
+        <v>0.2475292250218883</v>
+      </c>
+      <c r="P37">
+        <v>0.1908326717435173</v>
+      </c>
+      <c r="Q37">
+        <v>24.0873523334865</v>
+      </c>
+      <c r="R37">
+        <v>96.349409333946</v>
+      </c>
+      <c r="S37">
+        <v>0.2013644752615686</v>
+      </c>
+      <c r="T37">
+        <v>0.1446524144176173</v>
       </c>
     </row>
   </sheetData>
